--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,19 +879,21 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -884,16 +911,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,23 +963,29 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -956,11 +995,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1070,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1260,14 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1216,55 +1295,67 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,46 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>700</v>
       </c>
       <c r="K41" s="3">
         <v>800</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,23 +2049,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -1894,22 +2079,28 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1958,13 +2155,13 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -1972,11 +2169,11 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -1984,60 +2181,72 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>100</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
@@ -2045,11 +2254,11 @@
       <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2060,8 +2269,14 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,25 +2313,31 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
@@ -2127,17 +2348,23 @@
       <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3">
+        <v>300</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2376,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2396,8 +2657,14 @@
       <c r="N57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,8 +2701,14 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2460,20 +2733,26 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2490,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2510,8 +2789,14 @@
       <c r="N60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2833,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +3009,14 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2718,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,25 +3886,31 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -3486,19 +3919,25 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,13 +4080,19 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3653,11 +4112,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,13 +4318,19 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3854,25 +4345,31 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
       </c>
       <c r="H102" s="3">
         <v>-200</v>
       </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,82 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,11 +923,11 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -917,16 +945,22 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,29 +1003,35 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1001,11 +1041,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1013,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1124,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
       </c>
       <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,40 +1188,46 @@
         <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1290,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,16 +1340,22 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1301,61 +1381,73 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
         <v>-700</v>
       </c>
       <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E26" s="3">
         <v>-700</v>
       </c>
       <c r="F26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E27" s="3">
         <v>-700</v>
       </c>
       <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1890,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
         <v>-700</v>
       </c>
       <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
         <v>-700</v>
       </c>
       <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2139,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,40 +2153,46 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>700</v>
       </c>
       <c r="M41" s="3">
         <v>800</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2235,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,16 +2335,22 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2161,13 +2359,13 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2175,11 +2373,11 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2187,52 +2385,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2245,14 +2455,14 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>100</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -2260,11 +2470,11 @@
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
+        <v>100</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2275,8 +2485,14 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2535,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2333,17 +2555,17 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
@@ -2354,17 +2576,23 @@
       <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>300</v>
+      </c>
+      <c r="O49" s="3">
+        <v>300</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2643,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2663,8 +2925,14 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2674,20 +2942,20 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2707,8 +2975,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2739,20 +3013,26 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2775,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -2795,8 +3075,14 @@
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3325,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3039,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
         <v>-700</v>
       </c>
       <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4320,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3904,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -3925,19 +4359,25 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,19 +4540,25 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4118,11 +4578,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,19 +4810,25 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4351,25 +4843,31 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4424,36 +4928,42 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-200</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,8 +942,8 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -951,16 +964,19 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,11 +1049,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1047,8 +1066,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,40 +1151,41 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
       </c>
       <c r="H17" s="3">
         <v>700</v>
       </c>
       <c r="I17" s="3">
+        <v>700</v>
+      </c>
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
@@ -1168,16 +1194,19 @@
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,31 +1214,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-700</v>
       </c>
       <c r="H18" s="3">
         <v>-700</v>
       </c>
       <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
@@ -1218,16 +1247,19 @@
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,8 +1396,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1387,8 +1426,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1396,40 +1435,43 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-700</v>
       </c>
       <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
@@ -1438,16 +1480,19 @@
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,40 +1594,43 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
       </c>
       <c r="H26" s="3">
         <v>-700</v>
       </c>
       <c r="I26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
@@ -1588,48 +1639,51 @@
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
       </c>
       <c r="H27" s="3">
         <v>-700</v>
       </c>
       <c r="I27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
@@ -1638,16 +1692,19 @@
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,40 +1965,43 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
       </c>
       <c r="H33" s="3">
         <v>-700</v>
       </c>
       <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
@@ -1938,16 +2010,19 @@
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,40 +2071,43 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
       </c>
       <c r="H35" s="3">
         <v>-700</v>
       </c>
       <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
@@ -2038,71 +2116,77 @@
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2159,40 +2245,43 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2277,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2353,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2362,14 +2460,14 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2379,8 +2477,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2391,58 +2489,64 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>800</v>
       </c>
       <c r="N46" s="3">
         <v>800</v>
       </c>
       <c r="O46" s="3">
+        <v>800</v>
+      </c>
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2461,11 +2565,11 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
@@ -2476,8 +2580,8 @@
       <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>100</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2561,14 +2671,14 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -2582,8 +2692,8 @@
       <c r="O49" s="3">
         <v>300</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>300</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,49 +2913,52 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1200</v>
       </c>
       <c r="O54" s="3">
         <v>1200</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2911,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,8 +3075,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2957,8 +3090,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2981,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3019,11 +3155,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3031,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3061,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3361,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-100</v>
       </c>
       <c r="R72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3813,37 +3998,37 @@
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>100</v>
       </c>
       <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1100</v>
       </c>
       <c r="O76" s="3">
         <v>1100</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>1100</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,95 +4089,101 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
       </c>
       <c r="H81" s="3">
         <v>-700</v>
       </c>
       <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
@@ -3998,16 +4192,19 @@
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4344,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -4353,7 +4569,7 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -4365,19 +4581,22 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,22 +4772,25 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4584,8 +4813,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,22 +5058,25 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4849,25 +5094,28 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4934,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
@@ -4949,21 +5200,24 @@
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,8 +959,8 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -967,16 +981,19 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,11 +1072,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1069,8 +1089,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,43 +1178,44 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1197,16 +1224,19 @@
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,34 +1244,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-700</v>
       </c>
       <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
@@ -1250,16 +1280,19 @@
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,8 +1439,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1429,8 +1469,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1438,43 +1478,46 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-700</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
@@ -1483,16 +1526,19 @@
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,43 +1646,46 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-700</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
       </c>
       <c r="J26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
@@ -1642,51 +1694,54 @@
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-700</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
       </c>
       <c r="J27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
@@ -1695,16 +1750,19 @@
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,43 +2038,46 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-700</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
       </c>
       <c r="J33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
@@ -2013,16 +2086,19 @@
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,43 +2150,46 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-700</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
       </c>
       <c r="J35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
@@ -2119,74 +2198,80 @@
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2248,40 +2335,43 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2372,13 +2465,13 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>100</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2454,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2463,14 +2562,14 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2480,8 +2579,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2492,87 +2591,93 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>800</v>
       </c>
       <c r="P46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
@@ -2583,8 +2688,8 @@
       <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>100</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,37 +2759,40 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>300</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
@@ -2695,8 +2806,8 @@
       <c r="P49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>300</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,52 +3039,55 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1200</v>
       </c>
       <c r="P54" s="3">
         <v>1200</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3044,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3078,8 +3212,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -3093,8 +3227,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3158,11 +3295,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3203,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3521,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-100</v>
       </c>
       <c r="S72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4001,37 +4187,37 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>100</v>
       </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1100</v>
       </c>
       <c r="P76" s="3">
         <v>1100</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>1100</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,101 +4281,107 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-700</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
       </c>
       <c r="J81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
@@ -4195,16 +4390,19 @@
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4563,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -4572,7 +4789,7 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
@@ -4584,19 +4801,22 @@
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4786,11 +5016,11 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4816,8 +5046,8 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,25 +5304,28 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5097,25 +5343,28 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5188,13 +5440,13 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
@@ -5203,21 +5455,24 @@
         <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +810,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,11 +990,11 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -984,16 +1012,22 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1082,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1075,14 +1115,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1092,11 +1132,11 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1231,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>-200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1304,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-600</v>
       </c>
       <c r="I18" s="3">
         <v>-700</v>
       </c>
       <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1437,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,11 +1522,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1472,73 +1552,85 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
       </c>
       <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
       </c>
       <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-600</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
       </c>
       <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,64 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
       </c>
       <c r="J33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
       </c>
       <c r="J35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2486,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2338,40 +2512,46 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>800</v>
-      </c>
-      <c r="P41" s="3">
-        <v>700</v>
       </c>
       <c r="Q41" s="3">
         <v>800</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2468,22 +2654,28 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2556,25 +2754,25 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2582,11 +2780,11 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2594,8 +2792,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,55 +2807,61 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2680,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -2691,11 +2901,11 @@
       <c r="O47" s="3">
         <v>100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>100</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -2706,8 +2916,14 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2792,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
@@ -2809,17 +3031,23 @@
       <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>300</v>
+      </c>
+      <c r="S49" s="3">
+        <v>300</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3288,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,55 +3303,61 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3178,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3198,8 +3460,14 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3215,11 +3483,11 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -3230,11 +3498,11 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3254,8 +3522,14 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3265,20 +3539,20 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3298,20 +3572,26 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3346,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3956,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3682,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10100</v>
+        <v>-10400</v>
       </c>
       <c r="E72" s="3">
         <v>-10300</v>
       </c>
       <c r="F72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-9500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4538,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4190,46 +4562,52 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1100</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-100</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
       </c>
       <c r="J81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4783,19 +5217,19 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
@@ -4804,19 +5238,25 @@
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5049,11 +5509,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,22 +5808,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5346,25 +5838,31 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5443,36 +5947,42 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,8 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1018,16 +1031,19 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,16 +1104,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1121,11 +1140,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1138,8 +1157,8 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,52 +1258,53 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
       </c>
       <c r="L17" s="3">
         <v>700</v>
       </c>
       <c r="M17" s="3">
+        <v>700</v>
+      </c>
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1287,16 +1313,19 @@
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,43 +1333,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
       </c>
       <c r="L18" s="3">
         <v>-700</v>
       </c>
       <c r="M18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
@@ -1349,16 +1378,19 @@
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1528,8 +1567,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1558,8 +1597,8 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1567,52 +1606,55 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-700</v>
       </c>
       <c r="L23" s="3">
         <v>-700</v>
       </c>
       <c r="M23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
@@ -1621,16 +1663,19 @@
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,52 +1801,55 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-700</v>
       </c>
       <c r="L26" s="3">
         <v>-700</v>
       </c>
       <c r="M26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
@@ -1807,60 +1858,63 @@
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-700</v>
       </c>
       <c r="L27" s="3">
         <v>-700</v>
       </c>
       <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
@@ -1869,16 +1923,19 @@
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2187,52 +2256,55 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-700</v>
       </c>
       <c r="L33" s="3">
         <v>-700</v>
       </c>
       <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
@@ -2241,16 +2313,19 @@
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,52 +2386,55 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-700</v>
       </c>
       <c r="L35" s="3">
         <v>-700</v>
       </c>
       <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
@@ -2365,83 +2443,89 @@
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2518,40 +2604,43 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>100</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2760,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2769,14 +2867,14 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2786,8 +2884,8 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2798,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2813,55 +2914,58 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>800</v>
       </c>
       <c r="R46" s="3">
         <v>800</v>
       </c>
       <c r="S46" s="3">
+        <v>800</v>
+      </c>
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2896,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
@@ -2907,8 +3011,8 @@
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>100</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
@@ -2922,8 +3026,11 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3020,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
@@ -3037,8 +3147,8 @@
       <c r="S49" s="3">
         <v>300</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>300</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3309,46 +3434,46 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1200</v>
       </c>
       <c r="S54" s="3">
         <v>1200</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3446,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3466,8 +3596,11 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3489,8 +3622,8 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -3504,8 +3637,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3528,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,8 +3675,8 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -3554,8 +3690,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3578,11 +3714,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3590,13 +3726,16 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -3632,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,13 +4116,16 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -4004,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-500</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-100</v>
       </c>
       <c r="V72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,13 +4726,16 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -4568,37 +4753,37 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>100</v>
       </c>
       <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1100</v>
       </c>
       <c r="S76" s="3">
         <v>1100</v>
       </c>
       <c r="T76" s="3">
-        <v>-100</v>
+        <v>1100</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,119 +4856,125 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-700</v>
       </c>
       <c r="L81" s="3">
         <v>-700</v>
       </c>
       <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
@@ -4789,16 +4983,19 @@
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5223,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5232,7 +5448,7 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
@@ -5244,19 +5460,22 @@
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5515,8 +5744,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5814,19 +6059,19 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5844,25 +6089,28 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5953,13 +6204,13 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
@@ -5968,21 +6219,24 @@
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1026,8 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1034,16 +1048,19 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1138,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1143,11 +1163,11 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1180,8 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,46 +1295,46 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1316,16 +1343,19 @@
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,46 +1363,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-700</v>
       </c>
       <c r="M18" s="3">
         <v>-700</v>
       </c>
       <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
@@ -1381,16 +1411,19 @@
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1570,8 +1610,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1600,8 +1640,8 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1609,55 +1649,58 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-700</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
       </c>
       <c r="N23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
@@ -1666,16 +1709,19 @@
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,55 +1853,58 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-700</v>
       </c>
       <c r="M26" s="3">
         <v>-700</v>
       </c>
       <c r="N26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
@@ -1861,63 +1913,66 @@
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-700</v>
       </c>
       <c r="M27" s="3">
         <v>-700</v>
       </c>
       <c r="N27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
@@ -1926,16 +1981,19 @@
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,55 +2329,58 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-700</v>
       </c>
       <c r="M33" s="3">
         <v>-700</v>
       </c>
       <c r="N33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
@@ -2316,16 +2389,19 @@
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,55 +2465,58 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-700</v>
       </c>
       <c r="M35" s="3">
         <v>-700</v>
       </c>
       <c r="N35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
@@ -2446,86 +2525,92 @@
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,13 +2660,14 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2607,40 +2694,43 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2755,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>100</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2861,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2870,14 +2969,14 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2887,8 +2986,8 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2899,13 +2998,16 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2917,55 +3019,58 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
-      </c>
-      <c r="R46" s="3">
-        <v>800</v>
       </c>
       <c r="S46" s="3">
         <v>800</v>
       </c>
       <c r="T46" s="3">
+        <v>800</v>
+      </c>
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3003,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
@@ -3014,8 +3119,8 @@
       <c r="R47" s="3">
         <v>100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>100</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3133,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>400</v>
-      </c>
-      <c r="P49" s="3">
-        <v>300</v>
       </c>
       <c r="Q49" s="3">
         <v>300</v>
@@ -3150,8 +3261,8 @@
       <c r="T49" s="3">
         <v>300</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
+      <c r="U49" s="3">
+        <v>300</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,13 +3542,16 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3437,46 +3563,46 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1200</v>
       </c>
       <c r="T54" s="3">
         <v>1200</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3579,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3625,8 +3759,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3640,8 +3774,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3678,8 +3815,8 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
@@ -3693,8 +3830,8 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3717,11 +3854,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -3729,17 +3866,20 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
@@ -3774,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,17 +4274,20 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
@@ -4164,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-500</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-100</v>
       </c>
       <c r="W72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4738,7 +4924,7 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -4756,37 +4942,37 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>100</v>
       </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>1100</v>
       </c>
       <c r="T76" s="3">
         <v>1100</v>
       </c>
       <c r="U76" s="3">
-        <v>-100</v>
+        <v>1100</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,125 +5048,131 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-700</v>
       </c>
       <c r="M81" s="3">
         <v>-700</v>
       </c>
       <c r="N81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
@@ -4986,16 +5181,19 @@
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5442,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -5451,7 +5668,7 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
@@ -5463,19 +5680,22 @@
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5747,8 +5977,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,13 +6287,16 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6062,19 +6308,19 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6092,25 +6338,28 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,13 +6423,16 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6207,13 +6459,13 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
@@ -6222,21 +6474,24 @@
         <v>-200</v>
       </c>
       <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -1657,8 +1657,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1861,8 +1861,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1929,8 +1929,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -2337,8 +2337,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2473,8 +2473,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -3739,7 +3739,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -4282,8 +4282,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -5129,8 +5129,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,112 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +837,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +911,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,11 +1057,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1051,16 +1079,22 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,11 +1181,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1166,14 +1206,14 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1183,11 +1223,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1338,84 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>-200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>700</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1423,73 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
       </c>
       <c r="M18" s="3">
         <v>-700</v>
       </c>
       <c r="N18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1584,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1658,14 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1613,11 +1693,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1643,85 +1723,97 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-600</v>
       </c>
       <c r="M23" s="3">
         <v>-700</v>
       </c>
       <c r="N23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-600</v>
       </c>
       <c r="M26" s="3">
         <v>-700</v>
       </c>
       <c r="N26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-300</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
       <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-600</v>
       </c>
       <c r="M27" s="3">
         <v>-700</v>
       </c>
       <c r="N27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-300</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
       </c>
       <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,76 +2472,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-600</v>
       </c>
       <c r="M33" s="3">
         <v>-700</v>
       </c>
       <c r="N33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-300</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
       </c>
       <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-600</v>
       </c>
       <c r="M35" s="3">
         <v>-700</v>
       </c>
       <c r="N35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-300</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
       </c>
       <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2833,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2670,10 +2844,10 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2697,40 +2871,46 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>800</v>
-      </c>
-      <c r="T41" s="3">
-        <v>700</v>
       </c>
       <c r="U41" s="3">
         <v>800</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2851,22 +3037,28 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2963,25 +3161,25 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2989,11 +3187,11 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3001,8 +3199,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,10 +3214,10 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -3022,55 +3226,61 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3111,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>100</v>
@@ -3122,11 +3332,11 @@
       <c r="S47" s="3">
         <v>100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>100</v>
+      </c>
+      <c r="U47" s="3">
+        <v>100</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
@@ -3137,8 +3347,14 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3421,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3247,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>400</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
@@ -3264,17 +3486,23 @@
       <c r="U49" s="3">
         <v>300</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
+      <c r="V49" s="3">
+        <v>300</v>
+      </c>
+      <c r="W49" s="3">
+        <v>300</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3791,14 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3554,10 +3806,10 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -3566,55 +3818,61 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3925,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3713,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3733,20 +3995,26 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3762,11 +4030,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -3777,11 +4045,11 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3801,8 +4069,14 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3818,11 +4092,11 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -3833,11 +4107,11 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3857,35 +4131,41 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
@@ -3917,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -3937,8 +4217,14 @@
       <c r="X60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,23 +4587,29 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>200</v>
+      </c>
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
@@ -4325,10 +4641,10 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-10100</v>
       </c>
       <c r="I72" s="3">
         <v>-10300</v>
       </c>
       <c r="J72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-9500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,22 +5281,28 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -4945,46 +5317,52 @@
         <v>0</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-100</v>
       </c>
       <c r="X76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-600</v>
       </c>
       <c r="M81" s="3">
         <v>-700</v>
       </c>
       <c r="N81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-300</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
       </c>
       <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5662,19 +6096,19 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
@@ -5683,19 +6117,25 @@
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5980,11 +6440,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,20 +6776,26 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6311,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6341,25 +6833,31 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,20 +6924,26 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -6462,36 +6966,42 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
       </c>
       <c r="R102" s="3">
         <v>-200</v>
       </c>
       <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1063,8 +1076,8 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -1085,16 +1098,19 @@
         <v>0</v>
       </c>
       <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,25 +1183,28 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1212,11 +1231,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1229,8 +1248,8 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1352,52 +1378,52 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>700</v>
       </c>
       <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
@@ -1406,16 +1432,19 @@
         <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1426,52 +1455,52 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-700</v>
       </c>
       <c r="P18" s="3">
         <v>-700</v>
       </c>
       <c r="Q18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
@@ -1480,16 +1509,19 @@
         <v>-300</v>
       </c>
       <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1664,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1699,8 +1738,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1729,8 +1768,8 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1738,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1750,52 +1792,52 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-700</v>
       </c>
       <c r="P23" s="3">
         <v>-700</v>
       </c>
       <c r="Q23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
@@ -1804,16 +1846,19 @@
         <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1972,52 +2023,52 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-700</v>
       </c>
       <c r="P26" s="3">
         <v>-700</v>
       </c>
       <c r="Q26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
@@ -2026,16 +2077,19 @@
         <v>-300</v>
       </c>
       <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2046,52 +2100,52 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-700</v>
       </c>
       <c r="P27" s="3">
         <v>-700</v>
       </c>
       <c r="Q27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
@@ -2100,16 +2154,19 @@
         <v>-300</v>
       </c>
       <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2478,8 +2547,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2490,52 +2562,52 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-700</v>
       </c>
       <c r="P33" s="3">
         <v>-700</v>
       </c>
       <c r="Q33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
@@ -2544,16 +2616,19 @@
         <v>-300</v>
       </c>
       <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2638,52 +2716,52 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-700</v>
       </c>
       <c r="P35" s="3">
         <v>-700</v>
       </c>
       <c r="Q35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
@@ -2692,95 +2770,101 @@
         <v>-300</v>
       </c>
       <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2850,7 +2936,7 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2877,40 +2963,43 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3043,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+      <c r="X43" s="3">
+        <v>100</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3167,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -3176,14 +3274,14 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3193,8 +3291,8 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3205,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3220,7 +3321,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3232,55 +3333,58 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
-      </c>
-      <c r="U46" s="3">
-        <v>800</v>
       </c>
       <c r="V46" s="3">
         <v>800</v>
       </c>
       <c r="W46" s="3">
+        <v>800</v>
+      </c>
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3327,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>100</v>
@@ -3338,8 +3442,8 @@
       <c r="U47" s="3">
         <v>100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>100</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -3353,8 +3457,11 @@
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3427,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3475,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>400</v>
-      </c>
-      <c r="S49" s="3">
-        <v>300</v>
       </c>
       <c r="T49" s="3">
         <v>300</v>
@@ -3492,8 +3602,8 @@
       <c r="W49" s="3">
         <v>300</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
+      <c r="X49" s="3">
+        <v>300</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3812,7 +3937,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3824,46 +3949,46 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>100</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1200</v>
       </c>
       <c r="W54" s="3">
         <v>1200</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
@@ -3871,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3981,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4001,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4013,11 +4146,11 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -4036,8 +4169,8 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -4051,8 +4184,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4075,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4098,8 +4234,8 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -4113,8 +4249,8 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4137,11 +4273,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4149,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4158,17 +4297,17 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
@@ -4203,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -4223,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4602,17 +4759,17 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
       </c>
       <c r="G66" s="3">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
@@ -4647,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
@@ -4667,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-100</v>
       </c>
       <c r="Z72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5296,7 +5481,7 @@
         <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
@@ -5305,7 +5490,7 @@
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -5323,37 +5508,37 @@
         <v>0</v>
       </c>
       <c r="N76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>100</v>
       </c>
       <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>1100</v>
       </c>
       <c r="W76" s="3">
         <v>1100</v>
       </c>
       <c r="X76" s="3">
-        <v>-100</v>
+        <v>1100</v>
       </c>
       <c r="Y76" s="3">
         <v>-100</v>
@@ -5361,8 +5546,11 @@
       <c r="Z76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5526,52 +5720,52 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-700</v>
       </c>
       <c r="P81" s="3">
         <v>-700</v>
       </c>
       <c r="Q81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
@@ -5580,16 +5774,19 @@
         <v>-300</v>
       </c>
       <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6102,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -6111,7 +6327,7 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
@@ -6123,19 +6339,22 @@
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6446,8 +6675,8 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
@@ -6458,8 +6687,11 @@
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6794,11 +7039,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6809,19 +7054,19 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6839,25 +7084,28 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6942,11 +7193,11 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6972,13 +7223,13 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
@@ -6987,21 +7238,24 @@
         <v>-200</v>
       </c>
       <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1079,8 +1093,8 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -1101,16 +1115,19 @@
         <v>0</v>
       </c>
       <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,11 +1254,11 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1251,8 +1271,8 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1381,52 +1408,52 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>700</v>
       </c>
       <c r="Q17" s="3">
         <v>700</v>
       </c>
       <c r="R17" s="3">
+        <v>700</v>
+      </c>
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
@@ -1435,16 +1462,19 @@
         <v>300</v>
       </c>
       <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1458,52 +1488,52 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-700</v>
       </c>
       <c r="Q18" s="3">
         <v>-700</v>
       </c>
       <c r="R18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
       </c>
       <c r="W18" s="3">
         <v>-300</v>
@@ -1512,16 +1542,19 @@
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1741,8 +1781,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1771,8 +1811,8 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1780,13 +1820,16 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-100</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1795,52 +1838,52 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-700</v>
       </c>
       <c r="Q23" s="3">
         <v>-700</v>
       </c>
       <c r="R23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
@@ -1849,16 +1892,19 @@
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,13 +2060,16 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2026,52 +2078,52 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-700</v>
       </c>
       <c r="Q26" s="3">
         <v>-700</v>
       </c>
       <c r="R26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
@@ -2080,21 +2132,24 @@
         <v>-300</v>
       </c>
       <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2103,52 +2158,52 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-700</v>
       </c>
       <c r="Q27" s="3">
         <v>-700</v>
       </c>
       <c r="R27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-300</v>
@@ -2157,16 +2212,19 @@
         <v>-300</v>
       </c>
       <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,13 +2620,16 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2565,52 +2638,52 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-700</v>
       </c>
       <c r="Q33" s="3">
         <v>-700</v>
       </c>
       <c r="R33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
@@ -2619,16 +2692,19 @@
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,13 +2780,16 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2719,52 +2798,52 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-700</v>
       </c>
       <c r="Q35" s="3">
         <v>-700</v>
       </c>
       <c r="R35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
@@ -2773,98 +2852,104 @@
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2939,7 +3026,7 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2966,40 +3053,43 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3138,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
+      <c r="Y43" s="3">
+        <v>100</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3268,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3277,14 +3376,14 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3294,8 +3393,8 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3324,7 +3426,7 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -3336,55 +3438,58 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
-      </c>
-      <c r="V46" s="3">
-        <v>800</v>
       </c>
       <c r="W46" s="3">
         <v>800</v>
       </c>
       <c r="X46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3434,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
@@ -3445,8 +3550,8 @@
       <c r="V47" s="3">
         <v>100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
+      <c r="W47" s="3">
+        <v>100</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3588,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>400</v>
-      </c>
-      <c r="T49" s="3">
-        <v>300</v>
       </c>
       <c r="U49" s="3">
         <v>300</v>
@@ -3605,8 +3716,8 @@
       <c r="X49" s="3">
         <v>300</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
+      <c r="Y49" s="3">
+        <v>300</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>4</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3940,7 +4066,7 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -3952,46 +4078,46 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>100</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1300</v>
-      </c>
-      <c r="W54" s="3">
-        <v>1200</v>
       </c>
       <c r="X54" s="3">
         <v>1200</v>
       </c>
       <c r="Y54" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Z54" s="3">
         <v>0</v>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4114,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4149,11 +4283,11 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -4172,8 +4306,8 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -4187,8 +4321,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4237,8 +4374,8 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -4252,8 +4389,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4276,11 +4413,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4300,17 +4440,17 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
@@ -4345,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4762,17 +4920,17 @@
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
@@ -4807,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-500</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-100</v>
       </c>
       <c r="AA72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5484,7 +5670,7 @@
         <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -5493,7 +5679,7 @@
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -5511,37 +5697,37 @@
         <v>0</v>
       </c>
       <c r="O76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>100</v>
       </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1200</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1100</v>
       </c>
       <c r="X76" s="3">
         <v>1100</v>
       </c>
       <c r="Y76" s="3">
-        <v>-100</v>
+        <v>1100</v>
       </c>
       <c r="Z76" s="3">
         <v>-100</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,95 +5815,101 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -5723,52 +5918,52 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-700</v>
       </c>
       <c r="Q81" s="3">
         <v>-700</v>
       </c>
       <c r="R81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
@@ -5777,16 +5972,19 @@
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6321,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -6330,7 +6547,7 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
@@ -6342,19 +6559,22 @@
         <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6678,8 +6908,8 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7042,11 +7288,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -7057,19 +7303,19 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7087,25 +7333,28 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7196,11 +7448,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -7226,13 +7478,13 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>-200</v>
@@ -7241,21 +7493,24 @@
         <v>-200</v>
       </c>
       <c r="V102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -1828,8 +1828,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -2068,8 +2068,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2148,8 +2148,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2628,8 +2628,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2788,8 +2788,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -5908,8 +5908,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>NXEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,127 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +864,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +950,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1036,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1096,11 +1124,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1118,16 +1146,22 @@
         <v>0</v>
       </c>
       <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
         <v>100</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1240,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1257,14 +1297,14 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1274,11 +1314,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1286,8 +1326,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1412,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1445,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1411,70 +1465,76 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>-200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>700</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
+        <v>700</v>
+      </c>
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
-      </c>
-      <c r="X17" s="3">
-        <v>300</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
       </c>
       <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1491,70 +1551,76 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-600</v>
       </c>
       <c r="Q18" s="3">
         <v>-700</v>
       </c>
       <c r="R18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-300</v>
       </c>
       <c r="Y18" s="3">
         <v>-300</v>
       </c>
       <c r="Z18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1649,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,25 +1731,31 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1743,8 +1817,14 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1784,11 +1864,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1814,22 +1894,28 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-100</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1841,70 +1927,76 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-600</v>
       </c>
       <c r="Q23" s="3">
         <v>-700</v>
       </c>
       <c r="R23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-300</v>
       </c>
       <c r="Y23" s="3">
         <v>-300</v>
       </c>
       <c r="Z23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2075,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,13 +2161,19 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2081,75 +2185,81 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-600</v>
       </c>
       <c r="Q26" s="3">
         <v>-700</v>
       </c>
       <c r="R26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-300</v>
       </c>
       <c r="Y26" s="3">
         <v>-300</v>
       </c>
       <c r="Z26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2161,70 +2271,76 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-600</v>
       </c>
       <c r="Q27" s="3">
         <v>-700</v>
       </c>
       <c r="R27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-300</v>
       </c>
       <c r="Y27" s="3">
         <v>-300</v>
       </c>
       <c r="Z27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2505,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2677,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,13 +2763,19 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2641,70 +2787,76 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-600</v>
       </c>
       <c r="Q33" s="3">
         <v>-700</v>
       </c>
       <c r="R33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-300</v>
       </c>
       <c r="Y33" s="3">
         <v>-300</v>
       </c>
       <c r="Z33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,13 +2935,19 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2801,155 +2959,167 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-600</v>
       </c>
       <c r="Q35" s="3">
         <v>-700</v>
       </c>
       <c r="R35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-300</v>
       </c>
       <c r="Y35" s="3">
         <v>-300</v>
       </c>
       <c r="Z35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,16 +3180,18 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -3029,10 +3203,10 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -3056,40 +3230,46 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>600</v>
-      </c>
-      <c r="W41" s="3">
-        <v>800</v>
-      </c>
-      <c r="X41" s="3">
-        <v>700</v>
       </c>
       <c r="Y41" s="3">
         <v>800</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3348,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3234,22 +3420,28 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3520,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3370,25 +3568,25 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
@@ -3396,11 +3594,11 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3408,16 +3606,22 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -3429,10 +3633,10 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -3441,55 +3645,61 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>900</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3542,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>100</v>
@@ -3553,11 +3763,11 @@
       <c r="W47" s="3">
         <v>100</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
+      <c r="X47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>100</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
@@ -3568,8 +3778,14 @@
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3864,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3702,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>400</v>
-      </c>
-      <c r="U49" s="3">
-        <v>300</v>
-      </c>
-      <c r="V49" s="3">
-        <v>300</v>
       </c>
       <c r="W49" s="3">
         <v>300</v>
@@ -3719,17 +3941,23 @@
       <c r="Y49" s="3">
         <v>300</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>4</v>
+      <c r="Z49" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>300</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4122,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4208,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,16 +4294,22 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -4069,10 +4321,10 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -4081,55 +4333,61 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1200</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4448,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4248,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4268,8 +4530,14 @@
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4286,14 +4554,14 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -4309,11 +4577,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -4324,11 +4592,11 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4348,8 +4616,14 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4377,11 +4651,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
@@ -4392,11 +4666,11 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4416,20 +4690,26 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
+      <c r="Y59" s="3">
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-      <c r="AA59" s="3">
-        <v>0</v>
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4443,20 +4723,20 @@
         <v>300</v>
       </c>
       <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -4488,10 +4768,10 @@
         <v>0</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X60" s="3">
         <v>100</v>
@@ -4508,8 +4788,14 @@
       <c r="AB60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4874,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4960,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5218,14 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4923,20 +5239,20 @@
         <v>300</v>
       </c>
       <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
@@ -4968,10 +5284,10 @@
         <v>0</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X66" s="3">
         <v>100</v>
@@ -4988,8 +5304,14 @@
       <c r="AB66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5680,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-10400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-10100</v>
       </c>
       <c r="M72" s="3">
         <v>-10300</v>
       </c>
       <c r="N72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-9500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-1500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,34 +6024,40 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F76" s="3">
         <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -5700,46 +6072,52 @@
         <v>0</v>
       </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>-100</v>
       </c>
       <c r="AB76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,98 +6196,110 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -5921,70 +6311,76 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-600</v>
       </c>
       <c r="Q81" s="3">
         <v>-700</v>
       </c>
       <c r="R81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-300</v>
       </c>
       <c r="Y81" s="3">
         <v>-300</v>
       </c>
       <c r="Z81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6409,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6491,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6921,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6541,19 +6975,19 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
@@ -6562,19 +6996,25 @@
         <v>-200</v>
       </c>
       <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7043,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7125,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7297,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6911,11 +7371,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
@@ -6923,8 +7383,14 @@
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7759,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7291,14 +7783,14 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -7306,22 +7798,22 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7336,25 +7828,31 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1000</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7931,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7451,14 +7955,14 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -7481,36 +7985,42 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-200</v>
       </c>
       <c r="V102" s="3">
         <v>-200</v>
       </c>
       <c r="W102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>
